--- a/Genomes_Metadata.xlsx
+++ b/Genomes_Metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varde\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varde\Documents\GitHub\Comparative Genomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BB38232-123D-4279-839D-2F5BE8923C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6957B7-7AB9-4CAF-9044-0611A1E496EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7650855D-839D-40BF-A102-CD2DC188463D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{7650855D-839D-40BF-A102-CD2DC188463D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
   <si>
     <t>GCA_002304445_1_ASM230444v1_genomic.fna</t>
   </si>
@@ -207,19 +207,220 @@
   </si>
   <si>
     <t>Alkaline Soda Lakes</t>
+  </si>
+  <si>
+    <t>Freshwater</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCA_002304445.1/</t>
+  </si>
+  <si>
+    <t>The reservoir is called Tous and is located in the region of Valencia, Spain. 12-25m</t>
+  </si>
+  <si>
+    <t>Russia: Kulunda Steppe</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Valencia, Spain</t>
+  </si>
+  <si>
+    <t>Soda Lake</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCA_003558065.1/</t>
+  </si>
+  <si>
+    <t>Pacific Ocean: North Pacific Gyre, Station ALOHA</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCA_013215165.1/</t>
+  </si>
+  <si>
+    <t>Groundwater</t>
+  </si>
+  <si>
+    <t>groundwater planktonic microbiome</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCA_016217545.1/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCF_902728235.1/</t>
+  </si>
+  <si>
+    <t>Marine??</t>
+  </si>
+  <si>
+    <t>PacBio WGS from isolate “Lentimonas CC4” isolated from Nahant. Fucoidan degrader</t>
+  </si>
+  <si>
+    <t>Comprehensive dataset of shotgun metagenomes from stratified freshwater lakes and ponds</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCA_903862595.1/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCA_903890485.1/</t>
+  </si>
+  <si>
+    <t>Cephalotes gut microbe isolates</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCF_001580015.1/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCF_001580045.1/</t>
+  </si>
+  <si>
+    <t>PRJNA310109</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> limnic surface water</t>
+  </si>
+  <si>
+    <t>Germany: Wolfenbuettel</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCF_001746835.1/</t>
+  </si>
+  <si>
+    <t>PRJNA319155</t>
+  </si>
+  <si>
+    <t>PRJNA516019</t>
+  </si>
+  <si>
+    <t>Irrigation water</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCF_004118375.1/</t>
+  </si>
+  <si>
+    <t>PRJNA574041</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCA_014529675.2/</t>
+  </si>
+  <si>
+    <t>PRJNA523022</t>
+  </si>
+  <si>
+    <t>Tanzania: Lake Tanganyika, Mahale</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCA_016871775.1/</t>
+  </si>
+  <si>
+    <t>100m?</t>
+  </si>
+  <si>
+    <t>PRJNA630981</t>
+  </si>
+  <si>
+    <t>Saanich Inlet, BC</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCA_018700525.1/</t>
+  </si>
+  <si>
+    <t>PRJNA18333</t>
+  </si>
+  <si>
+    <t>Termite Gut</t>
+  </si>
+  <si>
+    <t>Termite gut bacterium</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCF_000171235.2/</t>
+  </si>
+  <si>
+    <t>China:Weihai</t>
+  </si>
+  <si>
+    <t>Sediment?</t>
+  </si>
+  <si>
+    <t>PRJNA454064</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCF_003185655.1/</t>
+  </si>
+  <si>
+    <t>PRJNA649666</t>
+  </si>
+  <si>
+    <t>Japan;Palau</t>
+  </si>
+  <si>
+    <t>PRJNA688125</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCF_016595505.1/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF212121"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -239,13 +440,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -558,20 +773,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DBAAD9-0524-4AE0-AA2F-CE9666B1B71A}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="58.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.86328125" customWidth="1"/>
     <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -584,327 +801,545 @@
       <c r="D1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B27" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>52</v>
-      </c>
       <c r="D35" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>52</v>
-      </c>
       <c r="D36" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
       <c r="D37" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
       <c r="D38" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
       <c r="D39" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>53</v>
-      </c>
       <c r="D40" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>54</v>
-      </c>
       <c r="D41" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
       <c r="D42" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>51</v>
-      </c>
       <c r="D43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
       <c r="D44" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
       <c r="D45" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
       <c r="D46" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
       <c r="D47" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>55</v>
-      </c>
       <c r="D48" t="s">
         <v>56</v>
       </c>
+      <c r="F48" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA310109/" xr:uid="{0F148FC4-A70D-40C0-9575-3F3B3E5E1A58}"/>
+    <hyperlink ref="B11" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA319155/" xr:uid="{2988B598-BEBA-4211-8432-99367F4BA691}"/>
+    <hyperlink ref="B12" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA516019/" xr:uid="{7A79A420-766B-438D-B44A-B9F856136C7C}"/>
+    <hyperlink ref="B15" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA574041/" xr:uid="{6EBC28A8-3513-4F49-B6FB-1D44FFB9AAC8}"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA523022/" xr:uid="{BE32AF98-6204-45C1-AAB7-0C7B94FEE571}"/>
+    <hyperlink ref="B20" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA630981/" xr:uid="{C822B6E0-2C4A-4F6B-9EFB-837F4DCA3FCF}"/>
+    <hyperlink ref="B23" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA18333/" xr:uid="{9EC7CB08-D965-44CF-B6CF-9580FDC0F201}"/>
+    <hyperlink ref="B27" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA454064/" xr:uid="{2EF967FF-65E5-4B43-BD24-DB40CD23A2E7}"/>
+    <hyperlink ref="B30" r:id="rId9" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA649666/" xr:uid="{297F75E1-EBBB-4FBA-B038-B2E4EE4437F3}"/>
+    <hyperlink ref="B33" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA688125/" xr:uid="{EB95DBEC-16D5-40E7-821C-26E99E3D98B8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Genomes_Metadata.xlsx
+++ b/Genomes_Metadata.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varde\Documents\GitHub\Comparative Genomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6957B7-7AB9-4CAF-9044-0611A1E496EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDCAE68-1BF5-4FB4-A8E6-6098BE70AC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{7650855D-839D-40BF-A102-CD2DC188463D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$48</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
   <si>
     <t>GCA_002304445_1_ASM230444v1_genomic.fna</t>
   </si>
@@ -378,13 +381,22 @@
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCF_016595505.1/</t>
+  </si>
+  <si>
+    <t>Sediment</t>
+  </si>
+  <si>
+    <t>PRJNA664317</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/data-hub/genome/GCF_014803405.1/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,34 +405,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color rgb="FF212121"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -442,22 +432,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -775,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DBAAD9-0524-4AE0-AA2F-CE9666B1B71A}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -786,6 +765,7 @@
     <col min="3" max="3" width="6.86328125" customWidth="1"/>
     <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.265625" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -813,533 +793,554 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>72</v>
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" t="s">
-        <v>73</v>
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" t="s">
-        <v>77</v>
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>80</v>
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" t="s">
-        <v>81</v>
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" t="s">
-        <v>90</v>
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" t="s">
-        <v>93</v>
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>94</v>
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>99</v>
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>101</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>103</v>
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
+        <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>107</v>
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" t="s">
-        <v>108</v>
+        <v>68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>109</v>
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="G30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G33" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" t="s">
-        <v>52</v>
+        <v>13</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="E47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G48" xr:uid="{24DBAAD9-0524-4AE0-AA2F-CE9666B1B71A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G48">
+      <sortCondition ref="D1:D48"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA310109/" xr:uid="{0F148FC4-A70D-40C0-9575-3F3B3E5E1A58}"/>
-    <hyperlink ref="B11" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA319155/" xr:uid="{2988B598-BEBA-4211-8432-99367F4BA691}"/>
-    <hyperlink ref="B12" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA516019/" xr:uid="{7A79A420-766B-438D-B44A-B9F856136C7C}"/>
-    <hyperlink ref="B15" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA574041/" xr:uid="{6EBC28A8-3513-4F49-B6FB-1D44FFB9AAC8}"/>
-    <hyperlink ref="B17" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA523022/" xr:uid="{BE32AF98-6204-45C1-AAB7-0C7B94FEE571}"/>
-    <hyperlink ref="B20" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA630981/" xr:uid="{C822B6E0-2C4A-4F6B-9EFB-837F4DCA3FCF}"/>
-    <hyperlink ref="B23" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA18333/" xr:uid="{9EC7CB08-D965-44CF-B6CF-9580FDC0F201}"/>
-    <hyperlink ref="B27" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA454064/" xr:uid="{2EF967FF-65E5-4B43-BD24-DB40CD23A2E7}"/>
-    <hyperlink ref="B30" r:id="rId9" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA649666/" xr:uid="{297F75E1-EBBB-4FBA-B038-B2E4EE4437F3}"/>
-    <hyperlink ref="B33" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA688125/" xr:uid="{EB95DBEC-16D5-40E7-821C-26E99E3D98B8}"/>
+    <hyperlink ref="B17" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA310109/" xr:uid="{0F148FC4-A70D-40C0-9575-3F3B3E5E1A58}"/>
+    <hyperlink ref="B21" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA319155/" xr:uid="{2988B598-BEBA-4211-8432-99367F4BA691}"/>
+    <hyperlink ref="B22" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA516019/" xr:uid="{7A79A420-766B-438D-B44A-B9F856136C7C}"/>
+    <hyperlink ref="B35" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA574041/" xr:uid="{6EBC28A8-3513-4F49-B6FB-1D44FFB9AAC8}"/>
+    <hyperlink ref="B23" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA523022/" xr:uid="{BE32AF98-6204-45C1-AAB7-0C7B94FEE571}"/>
+    <hyperlink ref="B26" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA630981/" xr:uid="{C822B6E0-2C4A-4F6B-9EFB-837F4DCA3FCF}"/>
+    <hyperlink ref="B32" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA18333/" xr:uid="{9EC7CB08-D965-44CF-B6CF-9580FDC0F201}"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA454064/" xr:uid="{2EF967FF-65E5-4B43-BD24-DB40CD23A2E7}"/>
+    <hyperlink ref="B27" r:id="rId9" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA649666/" xr:uid="{297F75E1-EBBB-4FBA-B038-B2E4EE4437F3}"/>
+    <hyperlink ref="B47" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA688125/" xr:uid="{EB95DBEC-16D5-40E7-821C-26E99E3D98B8}"/>
+    <hyperlink ref="B29" r:id="rId11" display="https://www.ncbi.nlm.nih.gov/bioproject/664317" xr:uid="{5688B017-5A4D-4864-BD48-AD56781391BB}"/>
+    <hyperlink ref="G47" r:id="rId12" xr:uid="{9836E790-8130-4766-860E-ADF5E7E5FA8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Genomes_Metadata.xlsx
+++ b/Genomes_Metadata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varde\Documents\GitHub\Comparative Genomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDCAE68-1BF5-4FB4-A8E6-6098BE70AC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239D0992-5EA7-4D91-BC81-95B861CA6CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{7650855D-839D-40BF-A102-CD2DC188463D}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="12900" xr2:uid="{7650855D-839D-40BF-A102-CD2DC188463D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$48</definedName>
@@ -754,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DBAAD9-0524-4AE0-AA2F-CE9666B1B71A}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1343,4 +1344,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CE8599-653D-4A53-BC68-9238D233105D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>